--- a/descricao2030.xlsx
+++ b/descricao2030.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFFF042-2D5A-E94B-8E66-D9E58F938C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5F8CB2-8453-6244-BF0F-A148CEBC514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{AC6F29BF-5488-3242-B43D-CFDA095070C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dominios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
